--- a/data/trans_orig/P1432-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>11226</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6304</v>
+        <v>5761</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19612</v>
+        <v>18859</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01921860453229993</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0107911249313628</v>
+        <v>0.009862498268906856</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03357457157194854</v>
+        <v>0.03228528859597985</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -764,19 +764,19 @@
         <v>28008</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19005</v>
+        <v>18515</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39670</v>
+        <v>39049</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03036699848716817</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0206056622168657</v>
+        <v>0.02007391140944489</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04301057829082862</v>
+        <v>0.04233683339856527</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -785,19 +785,19 @@
         <v>39235</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28571</v>
+        <v>28316</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54438</v>
+        <v>54410</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02604416503896534</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01896571173402139</v>
+        <v>0.01879650932506919</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03613572696741207</v>
+        <v>0.03611775981045721</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>572915</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>564529</v>
+        <v>565282</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>577837</v>
+        <v>578380</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9807813954677</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9664254284280516</v>
+        <v>0.9677147114040202</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9892088750686372</v>
+        <v>0.9901375017310933</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>858</v>
@@ -835,19 +835,19 @@
         <v>894325</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>882663</v>
+        <v>883284</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>903328</v>
+        <v>903818</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9696330015128318</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9569894217091718</v>
+        <v>0.9576631666014347</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9793943377831343</v>
+        <v>0.9799260885905551</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1420</v>
@@ -856,19 +856,19 @@
         <v>1467239</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1452036</v>
+        <v>1452064</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1477903</v>
+        <v>1478158</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9739558349610347</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9638642730325875</v>
+        <v>0.9638822401895426</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9810342882659786</v>
+        <v>0.9812034906749307</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>14632</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8466</v>
+        <v>8039</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24040</v>
+        <v>24208</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01357415781133291</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007854195689322017</v>
+        <v>0.007458508732829318</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02230258587092794</v>
+        <v>0.02245867816400263</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -981,19 +981,19 @@
         <v>9827</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4943</v>
+        <v>4731</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18366</v>
+        <v>19079</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009292467892143412</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004673923702404657</v>
+        <v>0.004473836790515683</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0173670525893852</v>
+        <v>0.01804058060691893</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -1002,19 +1002,19 @@
         <v>24459</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15694</v>
+        <v>16495</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36723</v>
+        <v>36267</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0114537204799229</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007349330936184646</v>
+        <v>0.007724447717735694</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01719689397248907</v>
+        <v>0.01698339122418834</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1063262</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1053854</v>
+        <v>1053686</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1069428</v>
+        <v>1069855</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9864258421886671</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9776974141290713</v>
+        <v>0.9775413218359972</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9921458043106776</v>
+        <v>0.9925414912671706</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1019</v>
@@ -1052,19 +1052,19 @@
         <v>1047711</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1039172</v>
+        <v>1038459</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1052595</v>
+        <v>1052807</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9907075321078566</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.982632947410615</v>
+        <v>0.9819594193930808</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9953260762975954</v>
+        <v>0.9955261632094843</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2059</v>
@@ -1073,19 +1073,19 @@
         <v>2110973</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2098709</v>
+        <v>2099165</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2119738</v>
+        <v>2118937</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9885462795200771</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9828031060275109</v>
+        <v>0.9830166087758118</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9926506690638154</v>
+        <v>0.9922755522822643</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>8232</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3764</v>
+        <v>3595</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16454</v>
+        <v>15017</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00733969970268417</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003355969673781918</v>
+        <v>0.003205425539920233</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01467014334101404</v>
+        <v>0.01338885164277021</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1198,19 +1198,19 @@
         <v>6398</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2208</v>
+        <v>2732</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12549</v>
+        <v>12859</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006437127676278865</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002221728177251323</v>
+        <v>0.002748284934175349</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01262595552106163</v>
+        <v>0.01293769608773158</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1219,19 +1219,19 @@
         <v>14630</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7714</v>
+        <v>8214</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23328</v>
+        <v>24264</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006915645003547743</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003646423612164899</v>
+        <v>0.00388249672184297</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01102696654113322</v>
+        <v>0.01146967255101936</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>1113362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1105140</v>
+        <v>1106577</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1117830</v>
+        <v>1117999</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9926603002973158</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.985329856658986</v>
+        <v>0.9866111483572297</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9966440303262181</v>
+        <v>0.9967945744600798</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>976</v>
@@ -1269,19 +1269,19 @@
         <v>987542</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>981391</v>
+        <v>981081</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>991732</v>
+        <v>991208</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9935628723237211</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9873740444789384</v>
+        <v>0.9870623039122686</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9977782718227487</v>
+        <v>0.9972517150658252</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2071</v>
@@ -1290,19 +1290,19 @@
         <v>2100904</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2092206</v>
+        <v>2091270</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2107820</v>
+        <v>2107320</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9930843549964523</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9889730334588659</v>
+        <v>0.9885303274489806</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9963535763878348</v>
+        <v>0.9961175032781571</v>
       </c>
     </row>
     <row r="12">
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6308</v>
+        <v>5688</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002361205436757258</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0141058522398599</v>
+        <v>0.01271833827713341</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1415,19 +1415,19 @@
         <v>5474</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2047</v>
+        <v>2025</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12873</v>
+        <v>12875</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01604567256363334</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006000729978493133</v>
+        <v>0.005935557233725824</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03773260899402389</v>
+        <v>0.03773967075979777</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1436,19 +1436,19 @@
         <v>6530</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2844</v>
+        <v>2655</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14025</v>
+        <v>13909</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008283094561008623</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003607215338426813</v>
+        <v>0.003367939256562713</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0177907142382551</v>
+        <v>0.01764249978147087</v>
       </c>
     </row>
     <row r="14">
@@ -1465,7 +1465,7 @@
         <v>446144</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>440892</v>
+        <v>441512</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>447200</v>
@@ -1474,7 +1474,7 @@
         <v>0.9976387945632428</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9858941477601401</v>
+        <v>0.9872816617228659</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1486,19 +1486,19 @@
         <v>335684</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>328285</v>
+        <v>328283</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>339111</v>
+        <v>339133</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9839543274363667</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.962267391005976</v>
+        <v>0.9622603292402029</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9939992700215069</v>
+        <v>0.9940644427662745</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>769</v>
@@ -1507,19 +1507,19 @@
         <v>781828</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>774333</v>
+        <v>774449</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>785514</v>
+        <v>785703</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9917169054389914</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9822092857617449</v>
+        <v>0.9823575002185291</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9963927846615731</v>
+        <v>0.9966320607434374</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>35146</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25494</v>
+        <v>25408</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47814</v>
+        <v>48698</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01087831557322931</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007890896219266487</v>
+        <v>0.007864288624791896</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01479931304058094</v>
+        <v>0.01507286626131337</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -1632,19 +1632,19 @@
         <v>49708</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37320</v>
+        <v>37042</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65643</v>
+        <v>65660</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01499496864943038</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01125814755203933</v>
+        <v>0.01117413368683155</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01980195804730661</v>
+        <v>0.01980707278948194</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>83</v>
@@ -1653,19 +1653,19 @@
         <v>84854</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>70066</v>
+        <v>67529</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>108175</v>
+        <v>105467</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.012963099789227</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01070399534429434</v>
+        <v>0.01031638462103209</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01652584721442898</v>
+        <v>0.0161121942598173</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3195683</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3183015</v>
+        <v>3182131</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3205335</v>
+        <v>3205421</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9891216844267707</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9852006869594189</v>
+        <v>0.9849271337386857</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9921091037807329</v>
+        <v>0.992135711375208</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3187</v>
@@ -1703,19 +1703,19 @@
         <v>3265261</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3249326</v>
+        <v>3249309</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3277649</v>
+        <v>3277927</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9850050313505696</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9801980419526934</v>
+        <v>0.980192927210518</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9887418524479606</v>
+        <v>0.9888258663131685</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6319</v>
@@ -1724,19 +1724,19 @@
         <v>6460944</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6437623</v>
+        <v>6440331</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6475732</v>
+        <v>6478269</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9870369002107729</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9834741527855709</v>
+        <v>0.9838878057401828</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9892960046557057</v>
+        <v>0.989683615378968</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>11181</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6072</v>
+        <v>6019</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22295</v>
+        <v>20907</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01071014549514801</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005816592629687088</v>
+        <v>0.005765675454376941</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02135635851232093</v>
+        <v>0.0200270270298868</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -2089,19 +2089,19 @@
         <v>24297</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15625</v>
+        <v>16283</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35674</v>
+        <v>35251</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0217200064329913</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01396725309717371</v>
+        <v>0.01455585702548818</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03189019180531726</v>
+        <v>0.03151202799910684</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -2110,19 +2110,19 @@
         <v>35478</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24394</v>
+        <v>25392</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49351</v>
+        <v>49703</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0164052732290173</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01127978519967776</v>
+        <v>0.0117415775126336</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02282022807290342</v>
+        <v>0.02298321259135901</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>1032754</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1021640</v>
+        <v>1023028</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1037863</v>
+        <v>1037916</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.989289854504852</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9786436414876791</v>
+        <v>0.9799729729701132</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9941834073703129</v>
+        <v>0.9942343245456231</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1007</v>
@@ -2160,19 +2160,19 @@
         <v>1094356</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1082979</v>
+        <v>1083402</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1103028</v>
+        <v>1102370</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9782799935670087</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9681098081946828</v>
+        <v>0.9684879720008932</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9860327469028263</v>
+        <v>0.9854441429745119</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1975</v>
@@ -2181,19 +2181,19 @@
         <v>2127110</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2113237</v>
+        <v>2112885</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2138194</v>
+        <v>2137196</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9835947267709827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9771797719270965</v>
+        <v>0.9770167874086408</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9887202148003222</v>
+        <v>0.9882584224873664</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>4306</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18266</v>
+        <v>13410</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004406992108452155</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0009811199638961174</v>
+        <v>0.0009860466951941242</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01869467743085547</v>
+        <v>0.01372477845559501</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -2306,19 +2306,19 @@
         <v>13619</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7326</v>
+        <v>7458</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22975</v>
+        <v>22778</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01248089367087389</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006713839860826923</v>
+        <v>0.006834531964962976</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02105471608095394</v>
+        <v>0.02087356475266195</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -2327,19 +2327,19 @@
         <v>17925</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10484</v>
+        <v>10297</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29882</v>
+        <v>29546</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008666735455755255</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005068961996479613</v>
+        <v>0.004978344510132743</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01444771251302104</v>
+        <v>0.01428508964069211</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>972767</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>958807</v>
+        <v>963663</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>976114</v>
+        <v>976110</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9955930078915478</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9813053225691448</v>
+        <v>0.9862752215444051</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9990188800361038</v>
+        <v>0.9990139533048059</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1005</v>
@@ -2377,19 +2377,19 @@
         <v>1077599</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1068243</v>
+        <v>1068440</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1083892</v>
+        <v>1083760</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9875191063291261</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.978945283919046</v>
+        <v>0.979126435247338</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.993286160139173</v>
+        <v>0.9931654680350369</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1926</v>
@@ -2398,19 +2398,19 @@
         <v>2050366</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2038409</v>
+        <v>2038745</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2057807</v>
+        <v>2057994</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9913332645442448</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.985552287486979</v>
+        <v>0.9857149103593079</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9949310380035205</v>
+        <v>0.9950216554898673</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>4225</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1107</v>
+        <v>1043</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9949</v>
+        <v>9863</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004773625198406497</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001250570073350707</v>
+        <v>0.001178818247953614</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01124083615966418</v>
+        <v>0.01114286672357722</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -2523,19 +2523,19 @@
         <v>11331</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5395</v>
+        <v>5389</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22016</v>
+        <v>21128</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01293812697942168</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006160299522871251</v>
+        <v>0.006153204607608499</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02513801066261538</v>
+        <v>0.0241245673221299</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -2544,19 +2544,19 @@
         <v>15556</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8472</v>
+        <v>8545</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25781</v>
+        <v>27003</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008834271459481572</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004811234103709131</v>
+        <v>0.004852595301641974</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01464054442052187</v>
+        <v>0.01533439649623044</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>880890</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>875166</v>
+        <v>875252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>884008</v>
+        <v>884072</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9952263748015935</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9887591638403349</v>
+        <v>0.9888571332764212</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9987494299266493</v>
+        <v>0.9988211817520464</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>812</v>
@@ -2594,19 +2594,19 @@
         <v>864465</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>853780</v>
+        <v>854668</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>870401</v>
+        <v>870407</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9870618730205784</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9748619893373849</v>
+        <v>0.97587543267787</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9938397004771289</v>
+        <v>0.9938467953923915</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1638</v>
@@ -2615,19 +2615,19 @@
         <v>1745355</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1735130</v>
+        <v>1733908</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1752439</v>
+        <v>1752366</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9911657285405184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9853594555794781</v>
+        <v>0.9846656035037693</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9951887658962909</v>
+        <v>0.9951474046983579</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>2945</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8207</v>
+        <v>7898</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005855268282123937</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001638188582168028</v>
+        <v>0.001670194188496008</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01631440670526246</v>
+        <v>0.01570024740151333</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -2740,19 +2740,19 @@
         <v>7535</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3173</v>
+        <v>3218</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14554</v>
+        <v>15029</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01664378783235437</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007008677758884198</v>
+        <v>0.007107743549920861</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03214772105502314</v>
+        <v>0.03319688250660833</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -2761,7 +2761,7 @@
         <v>10481</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5399</v>
+        <v>5496</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>18596</v>
@@ -2770,10 +2770,10 @@
         <v>0.01096570988138791</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00564921339574075</v>
+        <v>0.005750553350236574</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01945726474281237</v>
+        <v>0.01945664646300665</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>500078</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>494816</v>
+        <v>495125</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>502199</v>
+        <v>502183</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9941447317178761</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9836855932947378</v>
+        <v>0.9842997525984867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.998361811417832</v>
+        <v>0.998329805811504</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>405</v>
@@ -2811,19 +2811,19 @@
         <v>445201</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>438182</v>
+        <v>437707</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>449563</v>
+        <v>449518</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9833562121676457</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9678522789449767</v>
+        <v>0.9668031174933917</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9929913222411157</v>
+        <v>0.9928922564500792</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>863</v>
@@ -2835,16 +2835,16 @@
         <v>937162</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>950359</v>
+        <v>950262</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9890342901186121</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9805427352571874</v>
+        <v>0.9805433535369933</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9943507866042592</v>
+        <v>0.9942494466497633</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>22657</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13415</v>
+        <v>14423</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34225</v>
+        <v>35419</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00664600160512618</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003935006394488801</v>
+        <v>0.00423058383676659</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01003919943025473</v>
+        <v>0.01038926472991915</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -2957,19 +2957,19 @@
         <v>56783</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42702</v>
+        <v>42183</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72889</v>
+        <v>75210</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01604761413031228</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0120682141604394</v>
+        <v>0.01192148611539071</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02059951919390626</v>
+        <v>0.02125546113098307</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -2978,19 +2978,19 @@
         <v>79440</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61695</v>
+        <v>62582</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>99008</v>
+        <v>99614</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01143426513229953</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008880050739314449</v>
+        <v>0.009007804320825329</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0142508248286171</v>
+        <v>0.01433802539332102</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3386488</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3374920</v>
+        <v>3373726</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3395730</v>
+        <v>3394722</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9933539983948738</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9899608005697453</v>
+        <v>0.9896107352700808</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9960649936055113</v>
+        <v>0.9957694161632333</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3229</v>
@@ -3028,19 +3028,19 @@
         <v>3481620</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3465514</v>
+        <v>3463193</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3495701</v>
+        <v>3496220</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9839523858696877</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9794004808060938</v>
+        <v>0.9787445388690169</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9879317858395604</v>
+        <v>0.9880785138846091</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6402</v>
@@ -3049,19 +3049,19 @@
         <v>6868108</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6848540</v>
+        <v>6847934</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6885853</v>
+        <v>6884966</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9885657348677005</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9857491751713829</v>
+        <v>0.985661974606679</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9911199492606856</v>
+        <v>0.9909921956791746</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>3822</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9065</v>
+        <v>10218</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00338831135719262</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0008417925817513104</v>
+        <v>0.0008413052979262553</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008036213250415225</v>
+        <v>0.009058907608741439</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -3414,19 +3414,19 @@
         <v>24683</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14646</v>
+        <v>15001</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35963</v>
+        <v>35417</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01959628870278358</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01162798643423925</v>
+        <v>0.01190993124165864</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02855221223051876</v>
+        <v>0.02811822052024265</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -3435,19 +3435,19 @@
         <v>28505</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19432</v>
+        <v>18924</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42291</v>
+        <v>41872</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01193886067310903</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008139022810412993</v>
+        <v>0.007925910464208768</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01771308767142001</v>
+        <v>0.01753775030195216</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>1124175</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1118932</v>
+        <v>1117779</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1127047</v>
+        <v>1127048</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9966116886428074</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9919637867495847</v>
+        <v>0.9909410923912587</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9991582074182487</v>
+        <v>0.9991586947020737</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1166</v>
@@ -3485,19 +3485,19 @@
         <v>1234878</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1223598</v>
+        <v>1224144</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1244915</v>
+        <v>1244560</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9804037112972164</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9714477877694812</v>
+        <v>0.9718817794797574</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9883720135657608</v>
+        <v>0.9880900687583413</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2228</v>
@@ -3506,19 +3506,19 @@
         <v>2359053</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2345267</v>
+        <v>2345686</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2368126</v>
+        <v>2368634</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.988061139326891</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.98228691232858</v>
+        <v>0.982462249698048</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.991860977189587</v>
+        <v>0.9920740895357912</v>
       </c>
     </row>
     <row r="6">
@@ -3613,16 +3613,16 @@
         <v>887</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8749</v>
+        <v>9093</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003862905016599561</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0009765087267949357</v>
+        <v>0.0009759944571762119</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009626282989589462</v>
+        <v>0.01000468069721919</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -3631,19 +3631,19 @@
         <v>12442</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6524</v>
+        <v>6762</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21203</v>
+        <v>21940</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01236180611522547</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006482282459774071</v>
+        <v>0.006718109902702272</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02106616914538007</v>
+        <v>0.02179859479025404</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -3652,19 +3652,19 @@
         <v>15953</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9543</v>
+        <v>9139</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25175</v>
+        <v>26619</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008329011457915814</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004982337734831536</v>
+        <v>0.004771608279512266</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01314408786219786</v>
+        <v>0.01389825560954258</v>
       </c>
     </row>
     <row r="8">
@@ -3681,7 +3681,7 @@
         <v>905314</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>900076</v>
+        <v>899732</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>907938</v>
@@ -3690,10 +3690,10 @@
         <v>0.9961370949834004</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9903737170104105</v>
+        <v>0.9899953193027805</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9990234912732051</v>
+        <v>0.9990240055428238</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>940</v>
@@ -3702,19 +3702,19 @@
         <v>994033</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>985272</v>
+        <v>984535</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>999951</v>
+        <v>999713</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9876381938847745</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9789338308546195</v>
+        <v>0.9782014052097457</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9935177175402258</v>
+        <v>0.9932818900972976</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1817</v>
@@ -3723,19 +3723,19 @@
         <v>1899347</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1890125</v>
+        <v>1888681</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1905757</v>
+        <v>1906161</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9916709885420842</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9868559121378032</v>
+        <v>0.9861017443904575</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9950176622651685</v>
+        <v>0.9952283917204877</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>7639</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3412</v>
+        <v>3579</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13659</v>
+        <v>14552</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009273540852815117</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004142275596293237</v>
+        <v>0.004344178064037379</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01658107293687284</v>
+        <v>0.01766569943059988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10223</v>
+        <v>9334</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003368620175736219</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01325849120378886</v>
+        <v>0.01210597184178866</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -3869,19 +3869,19 @@
         <v>10237</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5183</v>
+        <v>5226</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18298</v>
+        <v>19463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006418644263056047</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003249730736129788</v>
+        <v>0.003276687263213585</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01147350908637517</v>
+        <v>0.01220373323129131</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>816120</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>810100</v>
+        <v>809207</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>820347</v>
+        <v>820180</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9907264591471849</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9834189270631271</v>
+        <v>0.9823343005694002</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9958577244037067</v>
+        <v>0.9956558219359626</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>726</v>
@@ -3919,7 +3919,7 @@
         <v>768462</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>760836</v>
+        <v>761725</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>771059</v>
@@ -3928,7 +3928,7 @@
         <v>0.9966313798242638</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9867415087962111</v>
+        <v>0.9878940281582114</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3940,19 +3940,19 @@
         <v>1584581</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1576520</v>
+        <v>1575355</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1589635</v>
+        <v>1589592</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9935813557369439</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9885264909136244</v>
+        <v>0.9877962667687087</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9967502692638702</v>
+        <v>0.9967233127367866</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>2544</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7717</v>
+        <v>7963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005020989383864765</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001585689151123086</v>
+        <v>0.001598840977496574</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01522915966776759</v>
+        <v>0.01571475393584764</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -4065,19 +4065,19 @@
         <v>11548</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5935</v>
+        <v>5309</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21589</v>
+        <v>21804</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02358102546237384</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0121200635375383</v>
+        <v>0.01084110269870854</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04408658136863736</v>
+        <v>0.04452464770307225</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -4086,19 +4086,19 @@
         <v>14092</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7395</v>
+        <v>7807</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24549</v>
+        <v>24648</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01414264568673288</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00742208261810716</v>
+        <v>0.007835506574883497</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02463819648232244</v>
+        <v>0.02473667367332998</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>504157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498984</v>
+        <v>498738</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505898</v>
+        <v>505891</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9949790106161353</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9847708403322325</v>
+        <v>0.9842852460641551</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9984143108488769</v>
+        <v>0.9984011590225035</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>446</v>
@@ -4136,19 +4136,19 @@
         <v>478150</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>468109</v>
+        <v>467894</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>483763</v>
+        <v>484389</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9764189745376262</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9559134186313623</v>
+        <v>0.9554753522969278</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9878799364624616</v>
+        <v>0.9891588973012915</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>914</v>
@@ -4157,19 +4157,19 @@
         <v>982306</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>971849</v>
+        <v>971750</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>989003</v>
+        <v>988591</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9858573543132672</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9753618035176777</v>
+        <v>0.9752633263266702</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9925779173818928</v>
+        <v>0.9921644934251167</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>17516</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10694</v>
+        <v>10802</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26732</v>
+        <v>27123</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005201825751806589</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003175720297317097</v>
+        <v>0.003207788402032022</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007938771018485584</v>
+        <v>0.00805496981174559</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -4282,19 +4282,19 @@
         <v>51270</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37679</v>
+        <v>37114</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69649</v>
+        <v>68751</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01453715943203933</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01068355229860572</v>
+        <v>0.01052331005664684</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01974867562193433</v>
+        <v>0.01949387422647397</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -4303,19 +4303,19 @@
         <v>68786</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>51287</v>
+        <v>52355</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>86595</v>
+        <v>88308</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009977489686445091</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007439340016646325</v>
+        <v>0.007594140613817683</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01256073472094408</v>
+        <v>0.01280918811678162</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3349766</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3340550</v>
+        <v>3340159</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3356588</v>
+        <v>3356480</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9947981742481934</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9920612289815141</v>
+        <v>0.9919450301882545</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9968242797026828</v>
+        <v>0.996792211597968</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3278</v>
@@ -4353,19 +4353,19 @@
         <v>3475522</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3457143</v>
+        <v>3458041</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3489113</v>
+        <v>3489678</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9854628405679606</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9802513243780658</v>
+        <v>0.9805061257735261</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9893164477013944</v>
+        <v>0.9894766899433531</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6464</v>
@@ -4374,19 +4374,19 @@
         <v>6825289</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6807480</v>
+        <v>6805767</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6842788</v>
+        <v>6841720</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9900225103135549</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.987439265279056</v>
+        <v>0.9871908118832183</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9925606599833536</v>
+        <v>0.9924058593861823</v>
       </c>
     </row>
     <row r="18">
